--- a/fine-tuning/open-source/executability.xlsx
+++ b/fine-tuning/open-source/executability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\fine-tuning\open-source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43380956-A55D-45AB-A420-366F2D1CA94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D403F08-EEE1-4E81-8F45-B4FB91A28932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="22">
   <si>
     <t>AirlinesCustomerSatisfaction</t>
   </si>
@@ -94,13 +94,16 @@
     <t>Llama-2-7b-8bits</t>
   </si>
   <si>
-    <t>Wrong URIs</t>
-  </si>
-  <si>
     <t>Incorrect serialization (dots, IDs with spaces), and wrong URIs</t>
   </si>
   <si>
     <t>Incorrect serialization (IDs with spaces), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Valid, Wrong URIs</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -678,9 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -721,22 +722,22 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,22 +745,22 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,22 +768,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -790,22 +791,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,22 +814,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,22 +837,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -870,8 +871,8 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
+      <c r="F8" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
